--- a/data/trans_bre/P26-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.438608458740172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3435071225399183</v>
+        <v>0.3435071225399072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.03258705354287873</v>
@@ -649,7 +649,7 @@
         <v>-0.08600791478219487</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0175221275025008</v>
+        <v>0.01752212750250023</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.300139820167155</v>
+        <v>-8.263113665810403</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.646018855462013</v>
+        <v>-7.006158597548794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.4636503003012</v>
+        <v>-9.756356950738446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.475494425849638</v>
+        <v>-8.925158248775777</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1599790634141821</v>
+        <v>-0.1618911233764474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1375866449028776</v>
+        <v>-0.1254380492742122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2370644297610181</v>
+        <v>-0.2263205045598603</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3945500692298622</v>
+        <v>-0.3783822739900345</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.538773877066405</v>
+        <v>5.011123460996603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.741308144569961</v>
+        <v>6.124993342515002</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.945524862936486</v>
+        <v>4.03206682413454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.371647769048471</v>
+        <v>9.256917744027181</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1001510315667935</v>
+        <v>0.1096042167497478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1182663982055904</v>
+        <v>0.125785987127877</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08065403506866696</v>
+        <v>0.1133662158646724</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5742163758276301</v>
+        <v>0.5950584713421407</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.489477808310993</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.006219268567728142</v>
+        <v>-0.006219268567733693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.214447620431727</v>
@@ -749,7 +749,7 @@
         <v>0.1453749606051435</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.000364647831477071</v>
+        <v>-0.0003646478314773963</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.947955498614644</v>
+        <v>1.834480312830392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.961207172946129</v>
+        <v>-3.358373267594643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6302416130087781</v>
+        <v>-1.398833465015019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.918569299629378</v>
+        <v>-6.59772786020554</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05713318058278857</v>
+        <v>0.04560633973626588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09673005019718445</v>
+        <v>-0.08323006084710584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01831322318015484</v>
+        <v>-0.03980812178814521</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.316754970629046</v>
+        <v>-0.3145881465423707</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.89109355082037</v>
+        <v>12.70499450241073</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.348144720183704</v>
+        <v>7.648964751045948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.917255913657085</v>
+        <v>9.683710708957104</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.506734699192228</v>
+        <v>5.469614219228596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.422120747720261</v>
+        <v>0.4159833143686784</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2011017729086025</v>
+        <v>0.2142902370670402</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3568141969278181</v>
+        <v>0.3402436464254797</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.398947935444959</v>
+        <v>0.3919079440253539</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.08865570048382536</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6377948396706827</v>
+        <v>0.6377948396706825</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.24947045164113</v>
+        <v>11.07886287476179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.315579051191583</v>
+        <v>3.188518867349095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.714765850891251</v>
+        <v>-2.848195576525047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.860613913058367</v>
+        <v>1.709100785734258</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4369619149882374</v>
+        <v>0.4369998502160605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09944749159905186</v>
+        <v>0.09488720580684434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1023165092176581</v>
+        <v>-0.1007556071864281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1787934391752259</v>
+        <v>0.1537082182568372</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.57358038555104</v>
+        <v>21.54749986893422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.12135283824596</v>
+        <v>13.90788567593317</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.457351453793856</v>
+        <v>7.060632855646273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.616539111611491</v>
+        <v>8.847763526384975</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.038141414949604</v>
+        <v>1.063480557898742</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4650355969341144</v>
+        <v>0.4850401646950261</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3323065198011684</v>
+        <v>0.310139271977706</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.277862939638935</v>
+        <v>1.321638614243157</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.04266105953127</v>
+        <v>7.10007367904793</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.283488056539657</v>
+        <v>7.241194113136765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4340347803650296</v>
+        <v>-1.11781720132771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2299161806220755</v>
+        <v>-0.3469085532003179</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1702677863274087</v>
+        <v>0.2057723892157602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1914798307015571</v>
+        <v>0.1938186017563461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01598877629473608</v>
+        <v>-0.04294886160640814</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01585449276924677</v>
+        <v>-0.02641350872785664</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.51551364613342</v>
+        <v>19.5522690729243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.84847584169756</v>
+        <v>19.29736833512346</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.04923775158273</v>
+        <v>9.457599556363911</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.31001402041129</v>
+        <v>6.395503433638333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.679011751985106</v>
+        <v>0.7160734057659727</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6323495230403474</v>
+        <v>0.6321913292485378</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4745418571855459</v>
+        <v>0.4313069870544337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.713655577356239</v>
+        <v>0.6908262994082232</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.593955793477922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5314199048952626</v>
+        <v>0.5314199048952652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4849653769952896</v>
@@ -1049,7 +1049,7 @@
         <v>0.06824618641009815</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.04311519466253431</v>
+        <v>0.04311519466253454</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.480478770748229</v>
+        <v>3.612791154021659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.326377295723955</v>
+        <v>3.189471037467125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.417935971318633</v>
+        <v>-4.761536618602776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.234159473470127</v>
+        <v>-2.943034538548321</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1675759612902163</v>
+        <v>0.1393154716235762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1133020519260247</v>
+        <v>0.1036982805886407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1595374582177471</v>
+        <v>-0.1875231563101143</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2212663071133806</v>
+        <v>-0.2028370745221502</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.30061465836487</v>
+        <v>16.92473318257632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.59459273993011</v>
+        <v>16.36830443107518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.797573341153837</v>
+        <v>7.52359426336968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.044627133034915</v>
+        <v>3.90200252879735</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9481862294876814</v>
+        <v>0.8950855117008903</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7031491394112079</v>
+        <v>0.7186598043469032</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3887551602382998</v>
+        <v>0.3622506505610836</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.405347677237211</v>
+        <v>0.3887484637477551</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.115294449615944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.180939492792087</v>
+        <v>3.180939492792086</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9979753320737003</v>
@@ -1149,7 +1149,7 @@
         <v>0.08845150264258021</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4740114933713575</v>
+        <v>0.4740114933713574</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.366070421737051</v>
+        <v>4.432233683571949</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.345443441783081</v>
+        <v>-1.334636596210374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.449607834682196</v>
+        <v>-4.56934823378185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.02197753143803705</v>
+        <v>-0.4666350180735137</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3187411385555065</v>
+        <v>0.3277677745870732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06704174108841429</v>
+        <v>-0.06701964871931626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2926703862359807</v>
+        <v>-0.308577004442695</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02296471458163768</v>
+        <v>-0.05655630808479942</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.47519647842085</v>
+        <v>15.84757291205359</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.06692110446343</v>
+        <v>11.73835356325308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.208579126443314</v>
+        <v>6.845703650529927</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.371912361703144</v>
+        <v>6.124656583901107</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.157167585744129</v>
+        <v>2.283066350619457</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8052676247296601</v>
+        <v>0.7907507072344053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7300251861804277</v>
+        <v>0.6901210904888065</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.260032219316344</v>
+        <v>1.208269941788374</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.764389982134783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.734962870661687</v>
+        <v>4.734962870661685</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5857968770173516</v>
@@ -1249,7 +1249,7 @@
         <v>0.56172170970249</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3.322295503798535</v>
+        <v>3.322295503798534</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3335566370002885</v>
+        <v>-0.8914905132715983</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3887904692670459</v>
+        <v>0.8481834560590681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.049163650535986</v>
+        <v>-1.095202407861302</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.360558995772809</v>
+        <v>2.595646876848399</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.02773884365040749</v>
+        <v>-0.0727408166372626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.003851333112601805</v>
+        <v>0.03710616186661575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1334198046492318</v>
+        <v>-0.135730056824229</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6875049252390476</v>
+        <v>0.6984287770764549</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.66636114527385</v>
+        <v>13.69291451641638</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.01742495175667</v>
+        <v>13.23045930743272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.636594513180686</v>
+        <v>8.7414287711198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.214503389459219</v>
+        <v>7.264140956371075</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.877050300894568</v>
+        <v>1.900645164396591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.78018749115766</v>
+        <v>1.88240639354459</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.780120535983816</v>
+        <v>1.802423739535513</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>10.51411730714256</v>
+        <v>14.41526035142905</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.768666929451219</v>
+        <v>6.119444654684195</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.397675241654708</v>
+        <v>3.445521672649242</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.6551070360245608</v>
+        <v>-0.6696835954404019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4151961847494599</v>
+        <v>0.4682264909338003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.193870582212112</v>
+        <v>0.2060702791700034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09725913416171456</v>
+        <v>0.10014045496428</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02526916721508067</v>
+        <v>-0.02491955478582089</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03339594364025417</v>
+        <v>0.03424000750915685</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.78018749237298</v>
+        <v>10.65198684126559</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.33080679936058</v>
+        <v>8.438586119832783</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.585003771586143</v>
+        <v>3.63644828901006</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.045644032883298</v>
+        <v>3.89156258294265</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3898549746126782</v>
+        <v>0.3850597884228764</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2582278498851703</v>
+        <v>0.2693080392787512</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.14900886423905</v>
+        <v>0.1496076234878124</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.390264051887879</v>
+        <v>0.3717504878675192</v>
       </c>
     </row>
     <row r="28">
